--- a/Data.xlsx
+++ b/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
   <si>
     <t>Дата/Время</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Датчик утечки жидкости</t>
+  </si>
+  <si>
+    <t>kkk</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>jj1</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,6 +155,8 @@
     <col min="17" max="17" width="17.29296875" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.44921875" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="17.05859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="23.86328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="4.0390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -209,6 +220,12 @@
       <c r="T1" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="U1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s" s="0">
@@ -268,64 +285,70 @@
       <c r="T2" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="U2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="2">
-        <v>45098.598720104164</v>
+        <v>45099.79815261574</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="D3" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E3" t="n" s="1">
-        <v>1.0</v>
+      <c r="D3" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>130.0</v>
+        <v>94.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>2638.0</v>
+        <v>2188.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="M3" t="n" s="0">
-        <v>1737.0</v>
+        <v>55.0</v>
+      </c>
+      <c r="M3" t="n" s="1">
+        <v>355.0</v>
       </c>
       <c r="N3" t="n" s="0">
-        <v>77.0</v>
+        <v>46.0</v>
       </c>
       <c r="O3" t="n" s="0">
-        <v>1067.0</v>
-      </c>
-      <c r="P3" t="n" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="Q3" t="n" s="1">
-        <v>61.0</v>
+        <v>1995.0</v>
+      </c>
+      <c r="P3" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="Q3" t="n" s="0">
+        <v>12.0</v>
       </c>
       <c r="R3" t="n" s="0">
-        <v>46.0</v>
+        <v>54.0</v>
       </c>
       <c r="S3" t="n" s="0">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="T3" t="n" s="0">
         <v>0.0</v>
@@ -333,19 +356,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="2">
-        <v>45098.598775150465</v>
+        <v>45099.7982765625</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="D4" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E4" t="n" s="1">
-        <v>1.0</v>
+      <c r="D4" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>6.0</v>
@@ -354,40 +377,40 @@
         <v>123.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>3455.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
+        <v>2531.0</v>
+      </c>
+      <c r="J4" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="M4" t="n" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="N4" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="O4" t="n" s="0">
+        <v>1267.0</v>
+      </c>
+      <c r="P4" t="n" s="0">
         <v>28.0</v>
       </c>
-      <c r="K4" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="L4" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="M4" t="n" s="0">
-        <v>1842.0</v>
-      </c>
-      <c r="N4" t="n" s="1">
-        <v>108.0</v>
-      </c>
-      <c r="O4" t="n" s="0">
-        <v>1751.0</v>
-      </c>
-      <c r="P4" t="n" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="Q4" t="n" s="1">
-        <v>61.0</v>
+      <c r="Q4" t="n" s="0">
+        <v>13.0</v>
       </c>
       <c r="R4" t="n" s="0">
-        <v>55.0</v>
+        <v>33.0</v>
       </c>
       <c r="S4" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="T4" t="n" s="0">
         <v>0.0</v>
@@ -395,64 +418,70 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="2">
-        <v>45098.598897592594</v>
+        <v>45099.79857143518</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C5" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n" s="1">
-        <v>-1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>101.0</v>
       </c>
       <c r="E5" t="n" s="1">
         <v>1.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>96.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="H5" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>2908.0</v>
+      </c>
+      <c r="J5" t="n" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="M5" t="n" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="N5" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="O5" t="n" s="0">
+        <v>1342.0</v>
+      </c>
+      <c r="P5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="Q5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="R5" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="S5" t="n" s="0">
         <v>13.0</v>
       </c>
-      <c r="I5" t="n" s="0">
-        <v>2938.0</v>
-      </c>
-      <c r="J5" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="K5" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="L5" t="n" s="0">
-        <v>72.0</v>
-      </c>
-      <c r="M5" t="n" s="0">
-        <v>1729.0</v>
-      </c>
-      <c r="N5" t="n" s="1">
-        <v>108.0</v>
-      </c>
-      <c r="O5" t="n" s="0">
-        <v>1239.0</v>
-      </c>
-      <c r="P5" t="n" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="Q5" t="n" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="R5" t="n" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="S5" t="n" s="1">
-        <v>20.0</v>
-      </c>
       <c r="T5" t="n" s="0">
         <v>0.0</v>
+      </c>
+      <c r="U5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="V5" t="n" s="0">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
